--- a/LANDSCAPE-latest/applications.xlsx
+++ b/LANDSCAPE-latest/applications.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DevelopmentWorkspaces\gitProjects\d3-examples\LANDSCAPE-latest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45AEC4-801B-4D17-9C98-B6B532AE39E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>softwares</t>
   </si>
@@ -93,9 +98,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Stefano Ceriali</t>
   </si>
   <si>
     <t>1</t>
@@ -111,18 +113,17 @@
 Support – 8*5</t>
   </si>
   <si>
-    <t>Tunc Dorum 
-Jaroslaw Krupnik</t>
-  </si>
-  <si>
     <t>Manufacturing Intelligence System</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -147,110 +148,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -558,41 +466,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6e145574-23c4-474d-8693-bb695b97b110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E145574-23C4-474D-8693-BB695B97B110}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.142857142857142" customWidth="1"/>
-    <col min="2" max="2" width="16.142857142857142" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="14.142857142857142" customWidth="1"/>
-    <col min="5" max="5" width="4.857142857142857" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="2.7142857142857144" customWidth="1"/>
-    <col min="8" max="8" width="16.285714285714285" customWidth="1"/>
-    <col min="9" max="9" width="15.285714285714286" customWidth="1"/>
-    <col min="10" max="10" width="10.285714285714286" customWidth="1"/>
-    <col min="11" max="11" width="7.142857142857143" customWidth="1"/>
-    <col min="12" max="12" width="5.857142857142857" customWidth="1"/>
-    <col min="13" max="13" width="9.285714285714286" customWidth="1"/>
-    <col min="14" max="14" width="16.285714285714285" customWidth="1"/>
-    <col min="15" max="15" width="73.57142857142857" customWidth="1"/>
-    <col min="16" max="16" width="26.285714285714285" customWidth="1"/>
-    <col min="17" max="17" width="27.285714285714285" customWidth="1"/>
-    <col min="18" max="18" width="6.428571428571429" customWidth="1"/>
-    <col min="19" max="19" width="7.714285714285714" customWidth="1"/>
-    <col min="20" max="20" width="12.142857142857142" customWidth="1"/>
-    <col min="21" max="21" width="4.571428571428571" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="73.5703125" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
     <col min="22" max="22" width="29" customWidth="1"/>
-    <col min="23" max="23" width="11.428571428571429" customWidth="1"/>
-    <col min="24" max="24" width="29.714285714285715" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="29.7109375" customWidth="1"/>
     <col min="25" max="25" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="12.75">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -686,37 +596,37 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
       </c>
       <c r="Q2" t="s">
         <v>31</v>
@@ -725,7 +635,7 @@
         <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
         <v>25</v>
@@ -740,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="s">
         <v>25</v>

--- a/LANDSCAPE-latest/applications.xlsx
+++ b/LANDSCAPE-latest/applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DevelopmentWorkspaces\gitProjects\d3-examples\LANDSCAPE-latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45AEC4-801B-4D17-9C98-B6B532AE39E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1025673-D4A8-40E5-8D04-75FBFCE1FDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>softwares</t>
   </si>
@@ -103,20 +103,131 @@
     <t>1</t>
   </si>
   <si>
-    <t>MINT</t>
-  </si>
-  <si>
-    <t>Microsoft Analytics - SSIS, SSAS, SSRS, SQL Server 2012, Microsoft Sharepoint 2010</t>
-  </si>
-  <si>
-    <t>System – 24*7
-Support – 8*5</t>
-  </si>
-  <si>
-    <t>Manufacturing Intelligence System</t>
-  </si>
-  <si>
-    <t>ABC</t>
+    <t>dotnet framework
+IFS Global 7.5 SP6 /App8Sp2
+Oracle 11gR2 /12c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Data : Parts , Suppliers , Price List , Currency , ISO , Company Data , Equipment , 
+Transaction Data: Requisitions , Order , Receipts , Invoice , Payments , Bank Reconciliation , Vouchers, General Ledgers , Cash Book , Work Orders </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Client-Server</t>
+  </si>
+  <si>
+    <t>ERP</t>
+  </si>
+  <si>
+    <t>&lt;Chris.Stayshich@apmterminals.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance (account payable, accounts receivable, Chart of Accounts, Invoicing)
+In APMT, IFS includes Acounts Payable, Acounts Receivable, General Ledger, Fixed Asset, Bank Reconciliation, Cash Bank as a part of Finance module.
+a. Distribution 
+Inventory Management
+Inbound Distribution
+Purchase Requisition
+Order
+Receipts
+b. Asset Management
+Equipment management
+c. Service Management
+Work Order Processing</t>
+  </si>
+  <si>
+    <t>APM Terminals is using IFS as Global ERP product,  which provides both terminals and Inland Services ea way to maintain, standardize and improve their processes for Finance (account payable, accounts receivable, Chart of Accounts, Invoicing)
+In APMT, IFS includes Acounts Payable, Acounts Receivable, General Ledger, Fixed Asset, Bank Reconciliation, Cash Bank as a part of Finance module. Besides that other key module involves; Along with that other key functional areas are Distribution, Asset Management &amp; Service Management</t>
+  </si>
+  <si>
+    <t>Application (Prod) –
+Scrbifsdkcph211
+Scrbifsdkcph212
+Database (Prod) 
+Scrbifsdkcph221
+Scrbifsdkcph222
+Crystal Reports Server (Prod)
+Scrbifsdkcph261
+Scrbifsdkcph262</t>
+  </si>
+  <si>
+    <t>AFLS</t>
+  </si>
+  <si>
+    <t>Details in System Context diagram</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Server 2008R2 
+dotnet framework
+IFS Global 7.5 SP6 / App8Sp2
+Oracle 11gR2 / 12C
+Crystal Reports
+Application Service – Jboss
+Webserver - Apache</t>
+  </si>
+  <si>
+    <t>There are two severs ; one in Charlotte and an Hongkong.</t>
+  </si>
+  <si>
+    <t>Infosys Support Team (IFS L2)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>apms:amps1.jpg,amps2.png,amps3.png,amps4.png,amps5.png</t>
+  </si>
+  <si>
+    <t>Distribution , Finance , Service Management , Technical – Dot Net , Java , Oracle , XML , UML</t>
+  </si>
+  <si>
+    <t>Indicate type of internal and external integrations – database/ MQ etc by system names
+scrbifsdkcph211 &lt;-&gt; scrbifsdkcph221 over 1433, 25
+scrbifsdkcph212 &lt;-&gt; scrbifsdkcph222 over 1433, 25
+scrbtrvdkcph222 &lt;-&gt;
+10.234.11.129, 10.102.8.57, 10.102.8.58, 10.51.12.73, 10.51.12.72, 10.229.3.12, 10.231.2.17, 10.31.88.114, 10.234.8.3, 10.91.201.51, 10.91.201.52 over
+80/443/50421/50422</t>
+  </si>
+  <si>
+    <t>Disaster Recovery Mechanism
+Availability
+Back up &amp; Recovery of IFS Data
+User Load Capacity
+Average Response Time per transaction
+Security Access and Segregation of Roles
+Scheduled Tasks and Batch Process Management</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>APM Terminals is using IFS as Global ERP product,  which provides both terminals and Inland Services ea way to maintain, standardize and improve their processes for Finance (account payable, accounts receivable, Chart of Accounts, Invoicing)&lt;br&gt;In APMT, IFS includes Acounts Payable, Acounts Receivable, General Ledger, Fixed Asset, Bank Reconciliation, Cash Bank as a part of Finance module. Besides that other key module involves; Along with that other key functional areas are Distribution, Asset Management &amp; Service Management.</t>
+  </si>
+  <si>
+    <t>Application (Prod) –&lt;br&gt;Scrbifsdkcph211&lt;br&gt;Scrbifsdkcph212&lt;br&gt;Database (Prod) &lt;br&gt;Scrbifsdkcph221&lt;br&gt;Scrbifsdkcph222&lt;br&gt;Crystal Reports Server (Prod)&lt;br&gt;Scrbifsdkcph261&lt;br&gt;Scrbifsdkcph262</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Server 2008R2&lt;br&gt;dotnet framework&lt;br&gt;IFS Global 7.5 SP6 \/ App8Sp2&lt;br&gt;Oracle 11gR2 \/ 12C&lt;br&gt;Crystal Reports&lt;br&gt;Application Service – Jboss&lt;br&gt;Webserver - Apache</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cds:IFS-AOD1.png,IFS-AOD2.png,IFS-AOD3.png,IFS-AOD4.png</t>
   </si>
 </sst>
 </file>
@@ -467,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E145574-23C4-474D-8693-BB695B97B110}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -581,78 +692,155 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
-      </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="X2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="s">
         <v>25</v>
       </c>
     </row>
